--- a/data/trans_orig/P56S_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Habitat-trans_orig.xlsx
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5490</v>
+        <v>4885</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1385594320143799</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4193831905212959</v>
+        <v>0.3731287897929397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>3127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7430</v>
+        <v>7481</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1908171940670057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05862277057660939</v>
+        <v>0.05782232646675797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4534094883952317</v>
+        <v>0.4564929728248004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -974,19 +974,19 @@
         <v>4941</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1892</v>
+        <v>1848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10696</v>
+        <v>10000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1676101002734751</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06419685316694854</v>
+        <v>0.06267933824561124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3628366002289136</v>
+        <v>0.339224187385864</v>
       </c>
     </row>
     <row r="9">
@@ -1050,19 +1050,19 @@
         <v>10332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6587</v>
+        <v>6590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12234</v>
+        <v>12228</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7892423854077203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5032052202867215</v>
+        <v>0.5034215572004728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9345019353259251</v>
+        <v>0.9340507183808014</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1071,19 +1071,19 @@
         <v>13261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8958</v>
+        <v>8907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15427</v>
+        <v>15440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8091828059329943</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5465905116047682</v>
+        <v>0.5435070271751996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9413772294233906</v>
+        <v>0.942177673533242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1092,19 +1092,19 @@
         <v>23593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18493</v>
+        <v>17985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27315</v>
+        <v>27044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8003274858573574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6273386879699137</v>
+        <v>0.6101008617574382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9265775366736442</v>
+        <v>0.9174037106285051</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3966</v>
+        <v>3944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07219818257789984</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.302961448089845</v>
+        <v>0.3012465244639048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5180</v>
+        <v>4447</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03206241386916751</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1757257621607841</v>
+        <v>0.1508671185000325</v>
       </c>
     </row>
     <row r="12">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5813</v>
+        <v>5226</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03955589440397585</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.212372582396426</v>
+        <v>0.1909465616895578</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5546</v>
+        <v>5563</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02557196280753338</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1309943449493595</v>
+        <v>0.1313981326360931</v>
       </c>
     </row>
     <row r="19">
@@ -1570,7 +1570,7 @@
         <v>24967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18852</v>
+        <v>19727</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>27370</v>
@@ -1579,7 +1579,7 @@
         <v>0.9122174298437488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6887914576034623</v>
+        <v>0.7207423228215203</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>39935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34743</v>
+        <v>34373</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>42338</v>
@@ -1600,7 +1600,7 @@
         <v>0.9432506165513548</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8206151061001004</v>
+        <v>0.8118771712981809</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8250</v>
+        <v>6591</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04822667575227534</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3014213417599781</v>
+        <v>0.2408174688357394</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5992</v>
+        <v>6599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03117742064111184</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1415358340847427</v>
+        <v>0.1558763105204204</v>
       </c>
     </row>
     <row r="21">
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5230</v>
+        <v>4539</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06003606900428034</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2963574600274397</v>
+        <v>0.2572380437094611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4942</v>
+        <v>5333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04306377369598489</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.20089858764492</v>
+        <v>0.2167959970313566</v>
       </c>
     </row>
     <row r="26">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4770</v>
+        <v>3892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05084170348912621</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2703106854196199</v>
+        <v>0.2205829329147603</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4226</v>
+        <v>4395</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03646867041241488</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1717841598621729</v>
+        <v>0.1786596916181021</v>
       </c>
     </row>
     <row r="27">
@@ -2072,7 +2072,7 @@
         <v>6186</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2947</v>
+        <v>3725</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6955</v>
@@ -2081,7 +2081,7 @@
         <v>0.8893689907862936</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.42377883189316</v>
+        <v>0.5356141345366149</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -2093,19 +2093,19 @@
         <v>13440</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9060</v>
+        <v>8255</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16566</v>
+        <v>16530</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7616331981495092</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5134501951888598</v>
+        <v>0.4678077514530678</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9388228676565022</v>
+        <v>0.9367600343563806</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -2114,19 +2114,19 @@
         <v>19625</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14474</v>
+        <v>14408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22643</v>
+        <v>22680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.797744316515972</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5883634219239489</v>
+        <v>0.5856785253183979</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9204248386703212</v>
+        <v>0.9219115426114206</v>
       </c>
     </row>
     <row r="29">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4008</v>
+        <v>3230</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1106310092137064</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5762211681068399</v>
+        <v>0.4643858654633851</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6615</v>
+        <v>7005</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1274890293570842</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3748484042283019</v>
+        <v>0.3969701626815771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2185,19 +2185,19 @@
         <v>3019</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8180</v>
+        <v>7505</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1227232393756282</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03113019918822543</v>
+        <v>0.03166128061731201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3325251957337444</v>
+        <v>0.3050495710559603</v>
       </c>
     </row>
     <row r="30">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>4585</v>
+        <v>5293</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02896452709097182</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1426714589383737</v>
+        <v>0.1646898704254561</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4372</v>
+        <v>4696</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02050163107784627</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09629136884506373</v>
+        <v>0.1034233397355243</v>
       </c>
     </row>
     <row r="34">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4169</v>
+        <v>4950</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1241465680767729</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3142747600576259</v>
+        <v>0.373076215302225</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2514,19 +2514,19 @@
         <v>5715</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2219</v>
+        <v>1219</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10677</v>
+        <v>11255</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1778131156533433</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06902789173769608</v>
+        <v>0.03794272588840899</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3321929370076163</v>
+        <v>0.3501853982677749</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2535,19 +2535,19 @@
         <v>7362</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3391</v>
+        <v>3124</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14018</v>
+        <v>13732</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1621327487653393</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07467529128574558</v>
+        <v>0.06880003252005086</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3087201534966647</v>
+        <v>0.302429544892847</v>
       </c>
     </row>
     <row r="36">
@@ -2577,19 +2577,19 @@
         <v>3451</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9138</v>
+        <v>8172</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1073685966511873</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03480036115713086</v>
+        <v>0.03450060615743782</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2843278676178765</v>
+        <v>0.2542677009110913</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2598,19 +2598,19 @@
         <v>3451</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8965</v>
+        <v>9314</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07599748999785469</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02444616931621799</v>
+        <v>0.02440810539096278</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1974355951057596</v>
+        <v>0.2051173775448733</v>
       </c>
     </row>
     <row r="37">
@@ -2627,19 +2627,19 @@
         <v>9966</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6642</v>
+        <v>6640</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12429</v>
+        <v>12435</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.751156588274154</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5006479696777393</v>
+        <v>0.5004964555213127</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9368528547352566</v>
+        <v>0.9372736939918355</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -2648,19 +2648,19 @@
         <v>15591</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10002</v>
+        <v>10126</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21215</v>
+        <v>21387</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.485103704599175</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3112058828670642</v>
+        <v>0.3150564291697849</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6600915615763639</v>
+        <v>0.6654354764445642</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>26</v>
@@ -2669,19 +2669,19 @@
         <v>25557</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18320</v>
+        <v>18844</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32061</v>
+        <v>31482</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5628394080498744</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4034718151581974</v>
+        <v>0.414997729745534</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7060876299979999</v>
+        <v>0.6933270101028042</v>
       </c>
     </row>
     <row r="38">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4976</v>
+        <v>4960</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1246968436490731</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3750798725815095</v>
+        <v>0.3738664082917187</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -2719,19 +2719,19 @@
         <v>6452</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2427</v>
+        <v>2880</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12491</v>
+        <v>12175</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2007500560053227</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07551983885986716</v>
+        <v>0.08960182326268896</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3886351329736884</v>
+        <v>0.3788248507087957</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -2740,19 +2740,19 @@
         <v>8106</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3960</v>
+        <v>3953</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>14047</v>
+        <v>14920</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1785287221090854</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08720553535203911</v>
+        <v>0.08704858066601392</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3093540800533092</v>
+        <v>0.3285854547687765</v>
       </c>
     </row>
     <row r="39">
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4836</v>
+        <v>5082</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.009951655140658371</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05170041195892871</v>
+        <v>0.05432313327012159</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4697</v>
+        <v>5011</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.006563872306161771</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0331191102556042</v>
+        <v>0.03533168562589505</v>
       </c>
     </row>
     <row r="43">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5273</v>
+        <v>5728</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01132505798789349</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05636690093508012</v>
+        <v>0.06122871120656589</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4589</v>
+        <v>6209</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.007469735781810095</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03235990747599847</v>
+        <v>0.0437763575206089</v>
       </c>
     </row>
     <row r="44">
@@ -3064,19 +3064,19 @@
         <v>3461</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3085,19 +3085,19 @@
         <v>9739</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4428</v>
+        <v>4503</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17432</v>
+        <v>18109</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1041128270448593</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04733049286483607</v>
+        <v>0.04813554929887203</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1863487299131111</v>
+        <v>0.1935898667859195</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>13</v>
@@ -3106,19 +3106,19 @@
         <v>13200</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>7816</v>
+        <v>6800</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21702</v>
+        <v>21181</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09307373116072741</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05511206843949409</v>
+        <v>0.04794411251834887</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1530211165836378</v>
+        <v>0.1493441126116334</v>
       </c>
     </row>
     <row r="45">
@@ -3148,19 +3148,19 @@
         <v>4534</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>11223</v>
+        <v>10350</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04846356609719327</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01220921281170157</v>
+        <v>0.01222859168322625</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1199692966986048</v>
+        <v>0.1106470767504081</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4</v>
@@ -3169,19 +3169,19 @@
         <v>4533</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>10214</v>
+        <v>10421</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03196540222375133</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.008176581780920782</v>
+        <v>0.008214921848613334</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07201707522145609</v>
+        <v>0.07347537972296533</v>
       </c>
     </row>
     <row r="46">
@@ -3198,19 +3198,19 @@
         <v>41451</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>36050</v>
+        <v>35871</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>44966</v>
+        <v>44884</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.8585362273155815</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.7466761878708803</v>
+        <v>0.742964941540127</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.9313391737089719</v>
+        <v>0.9296486422790955</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>61</v>
@@ -3219,19 +3219,19 @@
         <v>67260</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>58239</v>
+        <v>57730</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>75804</v>
+        <v>75649</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.7190130214911202</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.6225799900091378</v>
+        <v>0.6171358984087222</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.8103453162994166</v>
+        <v>0.808686749748513</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>106</v>
@@ -3240,19 +3240,19 @@
         <v>108710</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>96500</v>
+        <v>97613</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>118096</v>
+        <v>117862</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.766510077510967</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.6804193048540106</v>
+        <v>0.6882655740973134</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.8326882439682649</v>
+        <v>0.8310382305969679</v>
       </c>
     </row>
     <row r="47">
@@ -3269,19 +3269,19 @@
         <v>3369</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -3290,19 +3290,19 @@
         <v>10022</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>13</v>
@@ -3311,19 +3311,19 @@
         <v>13391</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="48">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5355</v>
+        <v>4296</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09981545386703788</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5057388242478809</v>
+        <v>0.4057821107620108</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3770,19 +3770,19 @@
         <v>4429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1127</v>
+        <v>1084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10299</v>
+        <v>10092</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09604901249560874</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02444966486646664</v>
+        <v>0.02350349867055771</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2233460256888062</v>
+        <v>0.2188626517965502</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3791,19 +3791,19 @@
         <v>5486</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2144</v>
+        <v>2102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10796</v>
+        <v>11950</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09675234131338906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0378208013784402</v>
+        <v>0.0370767362842282</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1904100614826377</v>
+        <v>0.2107485873285831</v>
       </c>
     </row>
     <row r="7">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5833</v>
+        <v>6044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02516266165816539</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1264898566948013</v>
+        <v>0.1310726634617065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4730</v>
+        <v>5808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02046389607787751</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08341548018924032</v>
+        <v>0.1024320894536244</v>
       </c>
     </row>
     <row r="8">
@@ -3896,19 +3896,19 @@
         <v>3139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8224</v>
+        <v>8441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06806749377890073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02238703184783413</v>
+        <v>0.02206408899871068</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1783512775278549</v>
+        <v>0.18305071229245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3917,19 +3917,19 @@
         <v>3139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7911</v>
+        <v>8522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05535686716675252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01798593717574726</v>
+        <v>0.01809956538222125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1395151780573348</v>
+        <v>0.1503038334390139</v>
       </c>
     </row>
     <row r="9">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6379</v>
+        <v>6466</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2060759828830682</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6025062064876664</v>
+        <v>0.6107312579938953</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -3967,19 +3967,19 @@
         <v>4317</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1123</v>
+        <v>1070</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10727</v>
+        <v>9861</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09362487362397336</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0243617689414229</v>
+        <v>0.02320808554975548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.23262879327876</v>
+        <v>0.2138513079363396</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3988,19 +3988,19 @@
         <v>6499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13230</v>
+        <v>13118</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1146235028163015</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03908990270133815</v>
+        <v>0.0390168629251141</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2333337563356101</v>
+        <v>0.2313596814144764</v>
       </c>
     </row>
     <row r="10">
@@ -4017,19 +4017,19 @@
         <v>7349</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4100</v>
+        <v>3401</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9540</v>
+        <v>9535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6941085632498939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3872698584656106</v>
+        <v>0.3212194823804433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9010130856406394</v>
+        <v>0.9005032678855772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -4038,19 +4038,19 @@
         <v>29680</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23222</v>
+        <v>22730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36238</v>
+        <v>36223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6436425959297396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5035878913907202</v>
+        <v>0.492912121863224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7858581628831778</v>
+        <v>0.7855321519937764</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -4059,19 +4059,19 @@
         <v>37030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30117</v>
+        <v>29006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44482</v>
+        <v>43667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6530663903375512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5311627682244807</v>
+        <v>0.5115530172997247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7844939962807922</v>
+        <v>0.770121377541015</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>3387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8880</v>
+        <v>9164</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07345336251361217</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02358466075920285</v>
+        <v>0.02369426719509504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1925619462674504</v>
+        <v>0.1987238747358976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4122,19 +4122,19 @@
         <v>3387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8825</v>
+        <v>9045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05973700228812825</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01929474722544532</v>
+        <v>0.01930676107600157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1556462645169361</v>
+        <v>0.159521767419924</v>
       </c>
     </row>
     <row r="12">
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4741</v>
+        <v>5544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03397161781454158</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1463433289482008</v>
+        <v>0.1711350283387904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5533</v>
+        <v>5642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01122338929148107</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05642546540848648</v>
+        <v>0.05753394933017034</v>
       </c>
     </row>
     <row r="14">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4850</v>
+        <v>4742</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01688548269038045</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07385465433592256</v>
+        <v>0.07222326304870014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6483</v>
+        <v>4766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01130693336596223</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06611486252322013</v>
+        <v>0.04859759105993069</v>
       </c>
     </row>
     <row r="15">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4885</v>
+        <v>6139</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03570084946235909</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1507977007847923</v>
+        <v>0.1894813752350557</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8065</v>
+        <v>6677</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03333680421707066</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1228286738429299</v>
+        <v>0.1016862069420667</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -4394,19 +4394,19 @@
         <v>3346</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10158</v>
+        <v>8962</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03411782678230127</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01108253690276625</v>
+        <v>0.01098011782729068</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1035895458227817</v>
+        <v>0.09139263488033893</v>
       </c>
     </row>
     <row r="16">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5319</v>
+        <v>5376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01486744743713457</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08100851072659329</v>
+        <v>0.08187871645777649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4025</v>
+        <v>4896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009955607463291235</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04104319204717299</v>
+        <v>0.04993280432162966</v>
       </c>
     </row>
     <row r="17">
@@ -4486,19 +4486,19 @@
         <v>4307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9722</v>
+        <v>9920</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1329521630193366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03309274554092169</v>
+        <v>0.03299583908739804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3000952155545362</v>
+        <v>0.3061929519200885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4507,19 +4507,19 @@
         <v>6476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2268</v>
+        <v>2173</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12125</v>
+        <v>12834</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09862402785871216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03454376242235041</v>
+        <v>0.03309416656893633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.18465570476603</v>
+        <v>0.195450837950462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4528,19 +4528,19 @@
         <v>10783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5366</v>
+        <v>5424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18306</v>
+        <v>18975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1099652017369061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05471660651300268</v>
+        <v>0.05530881720616537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1866764420776124</v>
+        <v>0.1934975690608346</v>
       </c>
     </row>
     <row r="18">
@@ -4557,19 +4557,19 @@
         <v>3229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8876</v>
+        <v>7760</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09968251651489435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03008670413933259</v>
+        <v>0.02984710131150254</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2739901676485303</v>
+        <v>0.2395260284071341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4578,19 +4578,19 @@
         <v>10007</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5515</v>
+        <v>5451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16783</v>
+        <v>16753</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.152394459384631</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08398556681830714</v>
+        <v>0.0830192327110736</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.255587270454811</v>
+        <v>0.2551316675130488</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -4599,19 +4599,19 @@
         <v>13236</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7635</v>
+        <v>7408</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21117</v>
+        <v>20827</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1349797263458022</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07786077813832645</v>
+        <v>0.07554215721414048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2153464198659375</v>
+        <v>0.2123837781767853</v>
       </c>
     </row>
     <row r="19">
@@ -4628,19 +4628,19 @@
         <v>21609</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15533</v>
+        <v>15424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27110</v>
+        <v>26957</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.667011871310589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4794456304989095</v>
+        <v>0.4761072309212962</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8368042678922966</v>
+        <v>0.832072688995708</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -4649,19 +4649,19 @@
         <v>41480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32668</v>
+        <v>32341</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49183</v>
+        <v>49324</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6316932117049636</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4975044041267192</v>
+        <v>0.4925200707849569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.749017040578931</v>
+        <v>0.751160189055543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -4670,19 +4670,19 @@
         <v>63089</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52295</v>
+        <v>53340</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72731</v>
+        <v>72658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6433616305648262</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5332872613758584</v>
+        <v>0.5439516730968491</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7416938825337773</v>
+        <v>0.7409454442450967</v>
       </c>
     </row>
     <row r="20">
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4248</v>
+        <v>5292</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0306809818782794</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1311241062751488</v>
+        <v>0.1633345033699285</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4720,19 +4720,19 @@
         <v>3428</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9074</v>
+        <v>9135</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05219856670710751</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01619550112065558</v>
+        <v>0.01604409378865744</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1381822155579107</v>
+        <v>0.139120209862138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -4741,19 +4741,19 @@
         <v>4422</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10309</v>
+        <v>11418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04508968444942973</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01215326121356504</v>
+        <v>0.01216965305284019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1051303652860157</v>
+        <v>0.1164332463406963</v>
       </c>
     </row>
     <row r="21">
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9475</v>
+        <v>9775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07437602683140845</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2245483801277698</v>
+        <v>0.2316623814097472</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9576</v>
+        <v>10062</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05587171339830323</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1704796611373497</v>
+        <v>0.1791251474959257</v>
       </c>
     </row>
     <row r="24">
@@ -4968,19 +4968,19 @@
         <v>3185</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7672</v>
+        <v>8495</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07548636734361891</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02250485593223025</v>
+        <v>0.02338517083502603</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1818181065190028</v>
+        <v>0.2013269948561667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4989,19 +4989,19 @@
         <v>3185</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8338</v>
+        <v>8660</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05670580779021487</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01754464592367014</v>
+        <v>0.01763455960788516</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1484437341324681</v>
+        <v>0.1541700917512414</v>
       </c>
     </row>
     <row r="25">
@@ -5078,19 +5078,19 @@
         <v>4415</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1089</v>
+        <v>1113</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10205</v>
+        <v>10072</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1046227674333236</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02580945951965118</v>
+        <v>0.02637135213098972</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2418369131269686</v>
+        <v>0.2386957203274872</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -5099,19 +5099,19 @@
         <v>4415</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1275</v>
+        <v>1050</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10306</v>
+        <v>10195</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07859324470534231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02269775275001349</v>
+        <v>0.01870085931755883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.183464363282806</v>
+        <v>0.1815021883477843</v>
       </c>
     </row>
     <row r="27">
@@ -5141,19 +5141,19 @@
         <v>5390</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12487</v>
+        <v>11606</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1277447039909235</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05046249673951116</v>
+        <v>0.05011324013989504</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2959248882386654</v>
+        <v>0.2750317801485546</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -5162,19 +5162,19 @@
         <v>5390</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2113</v>
+        <v>2129</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10908</v>
+        <v>11997</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09596258086910775</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03761646922812499</v>
+        <v>0.0379097428482912</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1941920294269965</v>
+        <v>0.2135761897276901</v>
       </c>
     </row>
     <row r="28">
@@ -5191,7 +5191,7 @@
         <v>12913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9106</v>
+        <v>9269</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>13975</v>
@@ -5200,7 +5200,7 @@
         <v>0.9240289008816296</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6516213202311352</v>
+        <v>0.6632831992180894</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -5212,19 +5212,19 @@
         <v>25088</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18142</v>
+        <v>18481</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31381</v>
+        <v>31588</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5945544780753103</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4299416372862522</v>
+        <v>0.4379802708929865</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7436786398408425</v>
+        <v>0.7485750388121396</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -5233,19 +5233,19 @@
         <v>38002</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30046</v>
+        <v>30300</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44751</v>
+        <v>45015</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6765257562886414</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5348917381705979</v>
+        <v>0.539409173759907</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7966844307639269</v>
+        <v>0.8013762874476265</v>
       </c>
     </row>
     <row r="29">
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4869</v>
+        <v>4706</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0759710991183704</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3483786797688709</v>
+        <v>0.3367168007819121</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5626</v>
+        <v>5164</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02321565632541527</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1333281547994618</v>
+        <v>0.1223722874288969</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6612</v>
+        <v>6388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03634089694839045</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1177090962306661</v>
+        <v>0.1137230172729679</v>
       </c>
     </row>
     <row r="30">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5045</v>
+        <v>5027</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01934538810607623</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09839497871618098</v>
+        <v>0.09803697032886297</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4787</v>
+        <v>6017</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01362155024576012</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0657436015988198</v>
+        <v>0.08263233770592131</v>
       </c>
     </row>
     <row r="32">
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6464</v>
+        <v>6495</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0938229540489833</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3000182924638217</v>
+        <v>0.3014800417373777</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6266</v>
+        <v>8494</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02775996912585037</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0860469850426652</v>
+        <v>0.1166524949244669</v>
       </c>
     </row>
     <row r="33">
@@ -5547,19 +5547,19 @@
         <v>7188</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3071</v>
+        <v>3080</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>13310</v>
+        <v>13483</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1401944489425848</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05989460357096685</v>
+        <v>0.060072817897936</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2596011930387195</v>
+        <v>0.2629604892937082</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -5568,19 +5568,19 @@
         <v>7188</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3100</v>
+        <v>3139</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>13909</v>
+        <v>13958</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09871426305726376</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04257662271930244</v>
+        <v>0.04310650178520701</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1910162243976631</v>
+        <v>0.1916873011754416</v>
       </c>
     </row>
     <row r="34">
@@ -5657,19 +5657,19 @@
         <v>8424</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3342</v>
+        <v>4089</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14678</v>
+        <v>15269</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1642994271774517</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0651729224924593</v>
+        <v>0.07974547307830787</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.286273031569433</v>
+        <v>0.2977987977417171</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -5678,19 +5678,19 @@
         <v>8424</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4078</v>
+        <v>4108</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16044</v>
+        <v>16143</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1156871544977855</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05600571104067167</v>
+        <v>0.05640989014178063</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2203321492188746</v>
+        <v>0.2216938799846984</v>
       </c>
     </row>
     <row r="36">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5471</v>
+        <v>6014</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05045940466769308</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2539188829097106</v>
+        <v>0.2791415038080782</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -5728,19 +5728,19 @@
         <v>3272</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8394</v>
+        <v>7764</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06381127931861123</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0208563796398155</v>
+        <v>0.02063470974988671</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1637143463407922</v>
+        <v>0.1514298530757368</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -5749,19 +5749,19 @@
         <v>4359</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9969</v>
+        <v>10005</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05986077880582411</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01541133962024146</v>
+        <v>0.01500093522915723</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.136910237815327</v>
+        <v>0.1373986312450142</v>
       </c>
     </row>
     <row r="37">
@@ -5778,19 +5778,19 @@
         <v>18436</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13741</v>
+        <v>12945</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21545</v>
+        <v>20645</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8557176412833236</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6377610145298869</v>
+        <v>0.6008166092843589</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>1</v>
+        <v>0.9582170505786111</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>25</v>
@@ -5799,19 +5799,19 @@
         <v>25739</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19184</v>
+        <v>18787</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>33393</v>
+        <v>32527</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5020034224383356</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3741593988073703</v>
+        <v>0.3664272599447175</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6512826114824516</v>
+        <v>0.6343975077807924</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -5820,19 +5820,19 @@
         <v>44175</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>35569</v>
+        <v>34920</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52113</v>
+        <v>52069</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6066590037301458</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4884744391771573</v>
+        <v>0.4795583381989261</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7156729788039262</v>
+        <v>0.7150724345950177</v>
       </c>
     </row>
     <row r="38">
@@ -5862,19 +5862,19 @@
         <v>5658</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2131</v>
+        <v>2705</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11363</v>
+        <v>11463</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1103460340169405</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04155892853210492</v>
+        <v>0.05276060851100901</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2216301860454989</v>
+        <v>0.223574371127633</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -5883,19 +5883,19 @@
         <v>5658</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1946</v>
+        <v>1933</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11357</v>
+        <v>11373</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07769728053737024</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02672499172410644</v>
+        <v>0.02655243018028696</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1559687413232124</v>
+        <v>0.1561915666897711</v>
       </c>
     </row>
     <row r="39">
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5771</v>
+        <v>5035</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01401918089039714</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07350904978936494</v>
+        <v>0.06413002357449679</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4990</v>
+        <v>6004</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004832637232770094</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02431013875507569</v>
+        <v>0.02925352235385438</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7367</v>
+        <v>6416</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007374269261463447</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02596259661155917</v>
+        <v>0.02261008586946163</v>
       </c>
     </row>
     <row r="41">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7017</v>
+        <v>6626</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02574857343612543</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08938866097377103</v>
+        <v>0.08440028601997759</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6079,19 +6079,19 @@
         <v>4247</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12556</v>
+        <v>13421</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02069320702834077</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005396594448224182</v>
+        <v>0.005336686543463164</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06117377586970777</v>
+        <v>0.06538985586201704</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -6100,19 +6100,19 @@
         <v>6269</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13926</v>
+        <v>13506</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02209187029688555</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007461296959024956</v>
+        <v>0.007470249931237128</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04907942041636087</v>
+        <v>0.04759738708337275</v>
       </c>
     </row>
     <row r="42">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7152</v>
+        <v>6955</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02819505635597008</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09110712860543675</v>
+        <v>0.08859868129971894</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>16</v>
@@ -6150,19 +6150,19 @@
         <v>16991</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>9612</v>
+        <v>10571</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>25712</v>
+        <v>26385</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08278596207129203</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04683229735857596</v>
+        <v>0.05150646626747525</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1252726398624269</v>
+        <v>0.128554800021714</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>18</v>
@@ -6171,19 +6171,19 @@
         <v>19205</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10833</v>
+        <v>11710</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>28405</v>
+        <v>28277</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06768234969948936</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03817722808959739</v>
+        <v>0.04126905290812572</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1001061637584094</v>
+        <v>0.09965581120530226</v>
       </c>
     </row>
     <row r="43">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7574</v>
+        <v>6696</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01040986454913443</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03690134775922281</v>
+        <v>0.03262651424390467</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>7447</v>
+        <v>7256</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.007529777528541765</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0262464602670701</v>
+        <v>0.02557107357045792</v>
       </c>
     </row>
     <row r="44">
@@ -6263,19 +6263,19 @@
         <v>4307</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>9972</v>
+        <v>10399</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05486581278857476</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01361658842172923</v>
+        <v>0.01360063731196772</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1270193127156354</v>
+        <v>0.1324603792494276</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -6284,19 +6284,19 @@
         <v>22453</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14704</v>
+        <v>13732</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>32658</v>
+        <v>32835</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1093983815921069</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07164245798433841</v>
+        <v>0.06690375273492134</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.159114780450118</v>
+        <v>0.1599816713597538</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>24</v>
@@ -6305,19 +6305,19 @@
         <v>26761</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>18094</v>
+        <v>18136</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37996</v>
+        <v>39219</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09431090923650465</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06376748847201812</v>
+        <v>0.0639140569937908</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.133906952371587</v>
+        <v>0.1382181186189725</v>
       </c>
     </row>
     <row r="45">
@@ -6334,19 +6334,19 @@
         <v>6498</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2223</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13348</v>
+        <v>13249</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.08277808202240294</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02832125022361182</v>
+        <v>0.02930069837521274</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1700245803471441</v>
+        <v>0.1687708181636544</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>21</v>
@@ -6355,19 +6355,19 @@
         <v>22986</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>14392</v>
+        <v>14266</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>32831</v>
+        <v>32640</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1119940148952798</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.07011975823914714</v>
+        <v>0.0695089483570379</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1599611274904112</v>
+        <v>0.1590285274409544</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>27</v>
@@ -6376,19 +6376,19 @@
         <v>29485</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20926</v>
+        <v>20127</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>42811</v>
+        <v>42173</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1039108713861094</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0737468257278327</v>
+        <v>0.07093246015807356</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1508748134491733</v>
+        <v>0.1486257946409677</v>
       </c>
     </row>
     <row r="46">
@@ -6405,19 +6405,19 @@
         <v>60308</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>51603</v>
+        <v>51029</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>67411</v>
+        <v>67495</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.7682079092078181</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.6573159379555693</v>
+        <v>0.6500121485735794</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8586846168518376</v>
+        <v>0.859758796631402</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>112</v>
@@ -6426,19 +6426,19 @@
         <v>121986</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>106808</v>
+        <v>107206</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>134309</v>
+        <v>136303</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5943449280962283</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5203910121154955</v>
+        <v>0.5223294925409154</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6543838172491553</v>
+        <v>0.6640993428563186</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>163</v>
@@ -6447,19 +6447,19 @@
         <v>182294</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>164653</v>
+        <v>165049</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>197335</v>
+        <v>198337</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.642447428652076</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5802742565794169</v>
+        <v>0.5816687729869473</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6954534911770176</v>
+        <v>0.6989866978625606</v>
       </c>
     </row>
     <row r="47">
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -6497,19 +6497,19 @@
         <v>13452</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06554100453484765</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>15</v>
@@ -6518,19 +6518,19 @@
         <v>15508</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05465252393892985</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
     </row>
     <row r="48">
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6085</v>
+        <v>4982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03026180359417121</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1528152535549144</v>
+        <v>0.1251254116084254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5983</v>
+        <v>6075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02049618385950556</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1017632058220503</v>
+        <v>0.1033290126508567</v>
       </c>
     </row>
     <row r="6">
@@ -6972,19 +6972,19 @@
         <v>2605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6988</v>
+        <v>6312</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1373123544231653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04140931020938992</v>
+        <v>0.04209878641619725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3683210395379842</v>
+        <v>0.3326680022726048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6993,19 +6993,19 @@
         <v>3574</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1151</v>
+        <v>1118</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8512</v>
+        <v>8572</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08975079140693791</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02890865464941885</v>
+        <v>0.02807732743281292</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2137642938555377</v>
+        <v>0.215276951411066</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -7014,19 +7014,19 @@
         <v>6179</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2223</v>
+        <v>2346</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11994</v>
+        <v>11899</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1050991210911698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03781143692889851</v>
+        <v>0.03989553077300816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.204000387196824</v>
+        <v>0.2023934083677917</v>
       </c>
     </row>
     <row r="7">
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5292</v>
+        <v>5219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09155012152956261</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2789344871555361</v>
+        <v>0.2750573546209743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7111,19 +7111,19 @@
         <v>5496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1193</v>
+        <v>1500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12149</v>
+        <v>11950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1380190652800369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02995285867962378</v>
+        <v>0.03767670001204637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3050961139760335</v>
+        <v>0.3000945159784155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -7132,19 +7132,19 @@
         <v>7233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2918</v>
+        <v>2863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15170</v>
+        <v>14087</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1230233287329229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04963025665191444</v>
+        <v>0.04869446680341872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2580223591910445</v>
+        <v>0.2396061470738285</v>
       </c>
     </row>
     <row r="9">
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5388</v>
+        <v>4843</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04224681390986729</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2839578326600126</v>
+        <v>0.2552726357140079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4642</v>
+        <v>6287</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02840110304526428</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1165643939966258</v>
+        <v>0.1578833928800595</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5958</v>
+        <v>6803</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03286917603500125</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1013416505702618</v>
+        <v>0.1157113406699876</v>
       </c>
     </row>
     <row r="10">
@@ -7232,19 +7232,19 @@
         <v>13829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9609</v>
+        <v>9741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16601</v>
+        <v>17154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7288907101374048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5064525906885509</v>
+        <v>0.5134038892998024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8749564309001421</v>
+        <v>0.9041247372448685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -7253,19 +7253,19 @@
         <v>22040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15001</v>
+        <v>15572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28274</v>
+        <v>29163</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5534795347502469</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3767127202110164</v>
+        <v>0.3910597109498586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7100371456765068</v>
+        <v>0.7323708969394686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -7274,19 +7274,19 @@
         <v>35868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28004</v>
+        <v>28089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43394</v>
+        <v>43906</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.610085507712535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4763168658986348</v>
+        <v>0.4777711647262672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7380961504874264</v>
+        <v>0.7467953720514937</v>
       </c>
     </row>
     <row r="11">
@@ -7316,19 +7316,19 @@
         <v>6375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2095</v>
+        <v>2847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12246</v>
+        <v>12645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1600877019233428</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0526046964261184</v>
+        <v>0.07150585002826861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3075343581017839</v>
+        <v>0.3175500630877793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -7337,19 +7337,19 @@
         <v>6375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2787</v>
+        <v>2305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13035</v>
+        <v>13250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1084266825688655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04740009775332234</v>
+        <v>0.03921393152475377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2217170420474362</v>
+        <v>0.2253734100961726</v>
       </c>
     </row>
     <row r="12">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6084</v>
+        <v>5489</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02948484700516022</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1481672498427621</v>
+        <v>0.1336649664063891</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6139</v>
+        <v>6177</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01999190642149859</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1013621005036164</v>
+        <v>0.1019872203169125</v>
       </c>
     </row>
     <row r="16">
@@ -7645,19 +7645,19 @@
         <v>4236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1604</v>
+        <v>1644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8322</v>
+        <v>8710</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2172234922817765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08225724541325674</v>
+        <v>0.0843119873368096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4268105189492119</v>
+        <v>0.446671951731004</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8069</v>
+        <v>8533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06216362660644951</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1964901111805145</v>
+        <v>0.2077878373959554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7687,19 +7687,19 @@
         <v>6788</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2867</v>
+        <v>2861</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12985</v>
+        <v>13724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1120866969723503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0473405394645431</v>
+        <v>0.04724474191946115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2144035973957628</v>
+        <v>0.2265967937339954</v>
       </c>
     </row>
     <row r="18">
@@ -7729,19 +7729,19 @@
         <v>3937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10383</v>
+        <v>9647</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09587667817544042</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02994251999227952</v>
+        <v>0.03010937209625064</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2528434078135394</v>
+        <v>0.234914019149771</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -7750,19 +7750,19 @@
         <v>3937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1240</v>
+        <v>1254</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12233</v>
+        <v>10550</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06500822533527423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02046976355773314</v>
+        <v>0.02070916164007249</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2019840456311051</v>
+        <v>0.1741907633516777</v>
       </c>
     </row>
     <row r="19">
@@ -7779,19 +7779,19 @@
         <v>13526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9660</v>
+        <v>8776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17029</v>
+        <v>16978</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6936675545858547</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4954201088755224</v>
+        <v>0.4500532935050416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8733160083603634</v>
+        <v>0.8707227449186725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -7800,19 +7800,19 @@
         <v>27214</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20422</v>
+        <v>19509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33590</v>
+        <v>33017</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6627132791689896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4973043949172502</v>
+        <v>0.4750676396007282</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8179823655416616</v>
+        <v>0.8040112915694497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7821,19 +7821,19 @@
         <v>40740</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32643</v>
+        <v>32969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48672</v>
+        <v>47979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6726793168863016</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5389820482336862</v>
+        <v>0.5443642139563187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.803647441175673</v>
+        <v>0.7921962945344305</v>
       </c>
     </row>
     <row r="20">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5461</v>
+        <v>5216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08910895313236877</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.280077427336253</v>
+        <v>0.2675238500024034</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -7871,19 +7871,19 @@
         <v>6150</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2387</v>
+        <v>2308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12723</v>
+        <v>12079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1497615690439603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05812632161430917</v>
+        <v>0.0562000930547866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3098300789377307</v>
+        <v>0.2941475727467919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -7892,19 +7892,19 @@
         <v>7887</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3299</v>
+        <v>3670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15292</v>
+        <v>15489</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1302338543845754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05446628283036611</v>
+        <v>0.06059329242638305</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2524945625101938</v>
+        <v>0.2557435572180204</v>
       </c>
     </row>
     <row r="21">
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4168</v>
+        <v>4161</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04603609854175573</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2370769304921616</v>
+        <v>0.2366808573300394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8386</v>
+        <v>8137</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04845464964369477</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2392630729177501</v>
+        <v>0.2321629784591874</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8249</v>
+        <v>9536</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04764673262050072</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1567420460729776</v>
+        <v>0.181205368534546</v>
       </c>
     </row>
     <row r="25">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5573</v>
+        <v>5084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.101281160308758</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3170003531617228</v>
+        <v>0.2891920873036541</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -8229,19 +8229,19 @@
         <v>6446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2529</v>
+        <v>2475</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13218</v>
+        <v>13013</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1839174576736564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07214652416621586</v>
+        <v>0.0706094883908647</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3771526354506056</v>
+        <v>0.3712948739586148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -8250,19 +8250,19 @@
         <v>8226</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15391</v>
+        <v>15019</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.156312801596181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06665761370625825</v>
+        <v>0.06668400275537453</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.292445675691298</v>
+        <v>0.2853882207336324</v>
       </c>
     </row>
     <row r="27">
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5938</v>
+        <v>6475</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03626683313018408</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1694372615569419</v>
+        <v>0.1847592457872616</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6550</v>
+        <v>6509</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02415189710930693</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1244601861872571</v>
+        <v>0.1236819211004504</v>
       </c>
     </row>
     <row r="28">
@@ -8342,19 +8342,19 @@
         <v>10896</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6271</v>
+        <v>6347</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14778</v>
+        <v>14914</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6198186975036549</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3567206919912478</v>
+        <v>0.361010529002375</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.840615769790597</v>
+        <v>0.8483567958373005</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -8363,19 +8363,19 @@
         <v>24611</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17740</v>
+        <v>17617</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30139</v>
+        <v>30016</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7022071619206387</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.506152784644196</v>
+        <v>0.5026506982518435</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.859939734885207</v>
+        <v>0.8564327936682437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -8384,19 +8384,19 @@
         <v>35507</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26996</v>
+        <v>27975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42181</v>
+        <v>42662</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6746852944422415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5129517540640266</v>
+        <v>0.5315521352113354</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8014856778952572</v>
+        <v>0.8106380526611168</v>
       </c>
     </row>
     <row r="29">
@@ -8413,19 +8413,19 @@
         <v>4094</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9247</v>
+        <v>9111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2328640436458313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04688076704380371</v>
+        <v>0.04766193642000183</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5259736715419502</v>
+        <v>0.5182839019656506</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5760</v>
+        <v>4409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0291538976318261</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1643377703578992</v>
+        <v>0.1257855069497269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -8455,19 +8455,19 @@
         <v>5116</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1522</v>
+        <v>1741</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11539</v>
+        <v>12703</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09720327423176991</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02892934593115849</v>
+        <v>0.0330890962341739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2192642104555579</v>
+        <v>0.241372943434141</v>
       </c>
     </row>
     <row r="30">
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6963</v>
+        <v>6785</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02207981972008639</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1246611295941365</v>
+        <v>0.1214685517363082</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7372</v>
+        <v>5873</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01715269696823529</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1025244563555851</v>
+        <v>0.08168270135234443</v>
       </c>
     </row>
     <row r="33">
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4182</v>
+        <v>4477</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0493298602712384</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2606696811330154</v>
+        <v>0.279058435482926</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6772</v>
+        <v>5878</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02301451778369279</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1212438826498828</v>
+        <v>0.1052416895652912</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>7602</v>
+        <v>7626</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02888679954762345</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1057339987182552</v>
+        <v>0.1060675987793648</v>
       </c>
     </row>
     <row r="34">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5805</v>
+        <v>6086</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1242166917917591</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3617928428903672</v>
+        <v>0.3792807437886341</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -8808,19 +8808,19 @@
         <v>9635</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4618</v>
+        <v>3803</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18011</v>
+        <v>17998</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1725032602454878</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0826685566404614</v>
+        <v>0.06808813075904062</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3224554995097476</v>
+        <v>0.3222260297877201</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -8829,19 +8829,19 @@
         <v>11628</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4966</v>
+        <v>5563</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20121</v>
+        <v>20080</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1617280884798983</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06907505597845272</v>
+        <v>0.07736585688840879</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2798483677212361</v>
+        <v>0.2792812021476338</v>
       </c>
     </row>
     <row r="36">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6404</v>
+        <v>6521</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1268717100170802</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3991228958244305</v>
+        <v>0.4064415090637528</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7621</v>
+        <v>7182</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0283114851894708</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1059970881469603</v>
+        <v>0.09988203440296657</v>
       </c>
     </row>
     <row r="37">
@@ -8921,19 +8921,19 @@
         <v>11225</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7048</v>
+        <v>7061</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14427</v>
+        <v>14242</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6995817379199223</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4392504938289631</v>
+        <v>0.4401049901075537</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8991686993853512</v>
+        <v>0.887629886618934</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -8942,19 +8942,19 @@
         <v>28636</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19584</v>
+        <v>20151</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>36499</v>
+        <v>37413</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5126680790786556</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3506204257662489</v>
+        <v>0.3607690776704738</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6534561660798438</v>
+        <v>0.6698031696921152</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -8963,19 +8963,19 @@
         <v>39860</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30011</v>
+        <v>31013</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49387</v>
+        <v>49372</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5543779550098771</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4174011051105629</v>
+        <v>0.4313387300704045</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6868849544577996</v>
+        <v>0.6866743775749374</v>
       </c>
     </row>
     <row r="38">
@@ -9005,19 +9005,19 @@
         <v>15066</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>8935</v>
+        <v>8055</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24718</v>
+        <v>22846</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2697343231720773</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1599722375642129</v>
+        <v>0.1442090227787831</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4425269673513172</v>
+        <v>0.4090152476710971</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>12</v>
@@ -9026,19 +9026,19 @@
         <v>15066</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>8849</v>
+        <v>8169</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24895</v>
+        <v>23410</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2095429748048951</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1230796333940292</v>
+        <v>0.1136129157528907</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3462511665878573</v>
+        <v>0.3255934036133573</v>
       </c>
     </row>
     <row r="39">
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7178</v>
+        <v>8552</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0141936601127321</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04178491297579999</v>
+        <v>0.04978414754533993</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7404</v>
+        <v>8458</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009997756885252576</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03035766344929366</v>
+        <v>0.03468043115690918</v>
       </c>
     </row>
     <row r="42">
@@ -9240,19 +9240,19 @@
         <v>4206</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8751</v>
+        <v>9046</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05833793241762878</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02214456964967699</v>
+        <v>0.02221541278396244</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1213718196971734</v>
+        <v>0.1254732645850176</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>6</v>
@@ -9261,19 +9261,19 @@
         <v>7768</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3513</v>
+        <v>2521</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16254</v>
+        <v>16097</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04522063677339887</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0204490339909256</v>
+        <v>0.01467574469887205</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09461449874645682</v>
+        <v>0.09370138175092746</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>11</v>
@@ -9282,19 +9282,19 @@
         <v>11974</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5874</v>
+        <v>6187</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>20741</v>
+        <v>20705</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04909834715199642</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02408675237057131</v>
+        <v>0.02537038925319327</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08504228942117327</v>
+        <v>0.08489725628697212</v>
       </c>
     </row>
     <row r="43">
@@ -9358,19 +9358,19 @@
         <v>9746</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>18</v>
@@ -9379,19 +9379,19 @@
         <v>24130</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>15201</v>
+        <v>14433</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>36840</v>
+        <v>37253</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1404626585733023</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08848667108150256</v>
+        <v>0.08401647207736038</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2144507117137811</v>
+        <v>0.2168517736065554</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>29</v>
@@ -9400,19 +9400,19 @@
         <v>33876</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>23199</v>
+        <v>22927</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46750</v>
+        <v>47464</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.138901642408079</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09512461190206938</v>
+        <v>0.0940091209059182</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1916905870576374</v>
+        <v>0.1946166266321296</v>
       </c>
     </row>
     <row r="45">
@@ -9432,16 +9432,16 @@
         <v>741</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8492</v>
+        <v>8605</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03935172030404811</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01028429901579257</v>
+        <v>0.01027634499372077</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1177816731560914</v>
+        <v>0.1193470203408773</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -9450,19 +9450,19 @@
         <v>6339</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2465</v>
+        <v>2454</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>13806</v>
+        <v>13673</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03690104629684562</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01435196444079795</v>
+        <v>0.01428410951507401</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.08036694060173434</v>
+        <v>0.07959365953980264</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>8</v>
@@ -9471,19 +9471,19 @@
         <v>9176</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4062</v>
+        <v>4601</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>17429</v>
+        <v>18147</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03762550995841359</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01665417678052865</v>
+        <v>0.01886410874921862</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07146603618436853</v>
+        <v>0.07440823037278961</v>
       </c>
     </row>
     <row r="46">
@@ -9500,19 +9500,19 @@
         <v>49476</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>41807</v>
+        <v>41406</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>56824</v>
+        <v>55912</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6862451308847953</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5798710806798869</v>
+        <v>0.5743126738752284</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.7881627857194959</v>
+        <v>0.7755113083280597</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>82</v>
@@ -9521,19 +9521,19 @@
         <v>102500</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>88054</v>
+        <v>86382</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>115827</v>
+        <v>116254</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5966646470906173</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5125725471127556</v>
+        <v>0.5028421465212634</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6742421597137933</v>
+        <v>0.6767313271124565</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>136</v>
@@ -9542,19 +9542,19 @@
         <v>151976</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>134349</v>
+        <v>135233</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>167478</v>
+        <v>167702</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6231462619866934</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.550868808985446</v>
+        <v>0.5544936796885551</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6867069067481406</v>
+        <v>0.6876289223124168</v>
       </c>
     </row>
     <row r="47">
@@ -9571,19 +9571,19 @@
         <v>5831</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>24</v>
@@ -9592,19 +9592,19 @@
         <v>28613</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>29</v>
@@ -9613,19 +9613,19 @@
         <v>34444</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="48">
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5213</v>
+        <v>5041</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05747264424458447</v>
+        <v>0.05747264424458448</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.199832991332707</v>
+        <v>0.1932245159253115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -9978,19 +9978,19 @@
         <v>1671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4422</v>
+        <v>4378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02538935133602857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006429760518471294</v>
+        <v>0.006347933681769512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0671933872408184</v>
+        <v>0.06652651472311201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -9999,19 +9999,19 @@
         <v>3170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1168</v>
+        <v>1268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7556</v>
+        <v>7615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03449753943876425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01270600733077899</v>
+        <v>0.01380329405448297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08222430559091159</v>
+        <v>0.08286665242408874</v>
       </c>
     </row>
     <row r="5">
@@ -10028,19 +10028,19 @@
         <v>2110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5029</v>
+        <v>5265</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08087518154589515</v>
+        <v>0.08087518154589517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02267216356642633</v>
+        <v>0.02120679123814911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1927700970016374</v>
+        <v>0.2018299271482979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -10049,19 +10049,19 @@
         <v>3966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1924</v>
+        <v>1738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7439</v>
+        <v>7419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06027713030414376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02923125577775493</v>
+        <v>0.02641195580097653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1130564730543187</v>
+        <v>0.1127380854772424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -10070,19 +10070,19 @@
         <v>6076</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3187</v>
+        <v>3442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10224</v>
+        <v>10127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06612475092695172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03468580890380536</v>
+        <v>0.03746013268680093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1112603857012081</v>
+        <v>0.1102115938689821</v>
       </c>
     </row>
     <row r="6">
@@ -10099,19 +10099,19 @@
         <v>6232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3714</v>
+        <v>3417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10155</v>
+        <v>10102</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2388748814563197</v>
+        <v>0.2388748814563198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1423714894576716</v>
+        <v>0.1309866285696483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3892782253384979</v>
+        <v>0.3872414422221746</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -10120,19 +10120,19 @@
         <v>14008</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10091</v>
+        <v>10102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18732</v>
+        <v>18671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2128754881699228</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.153356306781488</v>
+        <v>0.1535118402068881</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2846628322883739</v>
+        <v>0.2837396095737014</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -10141,19 +10141,19 @@
         <v>20239</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14942</v>
+        <v>15262</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25405</v>
+        <v>25803</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2202565062370039</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1626064911620171</v>
+        <v>0.1660913654268939</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2764756317894342</v>
+        <v>0.2807992653235308</v>
       </c>
     </row>
     <row r="7">
@@ -10173,16 +10173,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5005</v>
+        <v>4933</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03472023543714181</v>
+        <v>0.03472023543714182</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1918771720196628</v>
+        <v>0.1891130400545857</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -10191,19 +10191,19 @@
         <v>1303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2972</v>
+        <v>3156</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01980111692194684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004850098601739256</v>
+        <v>0.004900843209141472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04516533741398367</v>
+        <v>0.04795431176106964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -10212,19 +10212,19 @@
         <v>2209</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5431</v>
+        <v>5729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02403653434467544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007237432273973845</v>
+        <v>0.007371224301992766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05910644087257235</v>
+        <v>0.06234144829931407</v>
       </c>
     </row>
     <row r="8">
@@ -10241,19 +10241,19 @@
         <v>1677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4879</v>
+        <v>5768</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06430085916909414</v>
+        <v>0.06430085916909416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01339925554631676</v>
+        <v>0.01311065019189803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1870211956670733</v>
+        <v>0.2211122281276395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -10262,19 +10262,19 @@
         <v>5070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2727</v>
+        <v>2523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8776</v>
+        <v>8564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07704414499903763</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04144574043281883</v>
+        <v>0.03834808860179014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1333623779603976</v>
+        <v>0.1301481298983993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -10283,19 +10283,19 @@
         <v>6747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3608</v>
+        <v>3734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11047</v>
+        <v>11524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.073426428927409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03925946170075195</v>
+        <v>0.04063229290021717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1202208845449633</v>
+        <v>0.1254093872031259</v>
       </c>
     </row>
     <row r="9">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5205</v>
+        <v>5895</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06527429132025758</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1995274330437544</v>
+        <v>0.225959184509983</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -10333,19 +10333,19 @@
         <v>6218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3571</v>
+        <v>3641</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10219</v>
+        <v>10562</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09449668947974296</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05426918925659595</v>
+        <v>0.05532571262473188</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1552970159978583</v>
+        <v>0.1605168533201962</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -10354,19 +10354,19 @@
         <v>7921</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4579</v>
+        <v>4616</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13218</v>
+        <v>13355</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08620068632295197</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04983287775900015</v>
+        <v>0.05023709539377051</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1438423742581761</v>
+        <v>0.1453326083701111</v>
       </c>
     </row>
     <row r="10">
@@ -10383,19 +10383,19 @@
         <v>11121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6981</v>
+        <v>7719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15187</v>
+        <v>15145</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4263222870070347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2676129440068352</v>
+        <v>0.2958868492550997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5821557338319048</v>
+        <v>0.5805403458866518</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -10404,19 +10404,19 @@
         <v>32149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26701</v>
+        <v>26439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37677</v>
+        <v>37271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4885584936952648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4057695627372901</v>
+        <v>0.401793656929538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5725766645866049</v>
+        <v>0.5664007170880422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -10425,19 +10425,19 @@
         <v>43270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37155</v>
+        <v>36311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50696</v>
+        <v>49720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4708901365558402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4043373442554836</v>
+        <v>0.3951620713896489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.551704257681746</v>
+        <v>0.5410869893870633</v>
       </c>
     </row>
     <row r="11">
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2868</v>
+        <v>2625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03215961981967251</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1099250201390539</v>
+        <v>0.1006378177679147</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -10475,19 +10475,19 @@
         <v>1419</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3517</v>
+        <v>3310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02155758509391269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006742561082250562</v>
+        <v>0.005382451591753783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05345450876183807</v>
+        <v>0.0503037744446549</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -10496,19 +10496,19 @@
         <v>2257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5099</v>
+        <v>4917</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02456741724640363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009851285337479625</v>
+        <v>0.01019224619891289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05549437525578911</v>
+        <v>0.05350442784768769</v>
       </c>
     </row>
     <row r="12">
@@ -10613,19 +10613,19 @@
         <v>3502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1325</v>
+        <v>1290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6872</v>
+        <v>7061</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04730511894251589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01789850440623581</v>
+        <v>0.01742222107745629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09282077195848361</v>
+        <v>0.09536883250285691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -10634,19 +10634,19 @@
         <v>3502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1404</v>
+        <v>1163</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7402</v>
+        <v>7102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03492208206249092</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01400211046892604</v>
+        <v>0.01159937311172024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07381031067678276</v>
+        <v>0.07081252891181999</v>
       </c>
     </row>
     <row r="14">
@@ -10663,19 +10663,19 @@
         <v>1509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4233</v>
+        <v>4652</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05747470676765407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01477031784374865</v>
+        <v>0.01510884160038716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1612247713617382</v>
+        <v>0.1772159852599642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -10684,19 +10684,19 @@
         <v>5644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3227</v>
+        <v>2927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9819</v>
+        <v>10062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07623191786201222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04358312725174814</v>
+        <v>0.03953985260864326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1326264125455262</v>
+        <v>0.135899902011513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -10705,19 +10705,19 @@
         <v>7153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4144</v>
+        <v>4260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11706</v>
+        <v>11794</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07132185227206832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04132478805511632</v>
+        <v>0.0424719682714839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1167211833153447</v>
+        <v>0.1175983864765473</v>
       </c>
     </row>
     <row r="15">
@@ -10734,19 +10734,19 @@
         <v>3640</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1389</v>
+        <v>1334</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7591</v>
+        <v>7865</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1386575018820918</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05291760400480557</v>
+        <v>0.05080909068961528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.289144941582025</v>
+        <v>0.2995902858488436</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -10755,19 +10755,19 @@
         <v>13815</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9218</v>
+        <v>9486</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19428</v>
+        <v>19280</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1865929688536672</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.124511803656235</v>
+        <v>0.1281315326514476</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2624147358693077</v>
+        <v>0.2604053673134362</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>31</v>
@@ -10776,19 +10776,19 @@
         <v>17455</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12453</v>
+        <v>12180</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24172</v>
+        <v>23977</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1740449260912856</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1241732370822551</v>
+        <v>0.1214476571561376</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2410207440233534</v>
+        <v>0.2390755924966561</v>
       </c>
     </row>
     <row r="16">
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2864</v>
+        <v>2905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02106084883039437</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1090874442000292</v>
+        <v>0.110665057701131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4001</v>
+        <v>3680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01471481129230491</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05404111316150113</v>
+        <v>0.04970444392447271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -10847,19 +10847,19 @@
         <v>1642</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4731</v>
+        <v>4645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01637601030486161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004572896912299174</v>
+        <v>0.004611594497603904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04717306747529868</v>
+        <v>0.04631900226263422</v>
       </c>
     </row>
     <row r="17">
@@ -10889,19 +10889,19 @@
         <v>2804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1095</v>
+        <v>951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6008</v>
+        <v>5772</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03787772115191615</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01478994527248199</v>
+        <v>0.01284233976799418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08114412443568049</v>
+        <v>0.07796200954476552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -10910,19 +10910,19 @@
         <v>2804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1084</v>
+        <v>1165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5919</v>
+        <v>6198</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02796248938755999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01081288047240138</v>
+        <v>0.01161640146768338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0590157719233646</v>
+        <v>0.06180120746029164</v>
       </c>
     </row>
     <row r="18">
@@ -10939,19 +10939,19 @@
         <v>2686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5731</v>
+        <v>5972</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1023011722079579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03725602023944455</v>
+        <v>0.03803498719946548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2183088969354488</v>
+        <v>0.2274685029837046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -10960,19 +10960,19 @@
         <v>3945</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1949</v>
+        <v>1539</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7830</v>
+        <v>7309</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05328231262886089</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02632764231224646</v>
+        <v>0.02078282604583604</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1057512143135992</v>
+        <v>0.0987257812898208</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -10981,19 +10981,19 @@
         <v>6631</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3595</v>
+        <v>3650</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10522</v>
+        <v>11214</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06611395452204245</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0358461308813549</v>
+        <v>0.03639565624604756</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.104910964798532</v>
+        <v>0.1118183662324618</v>
       </c>
     </row>
     <row r="19">
@@ -11010,19 +11010,19 @@
         <v>16458</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12266</v>
+        <v>12389</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20175</v>
+        <v>20338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6268967647164805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4672295577552624</v>
+        <v>0.4719043164842175</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7684859033935388</v>
+        <v>0.7746911946247529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -11031,19 +11031,19 @@
         <v>40416</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33996</v>
+        <v>33794</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46209</v>
+        <v>46050</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5458830568960777</v>
+        <v>0.5458830568960776</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4591808922568641</v>
+        <v>0.4564445472617456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6241285225020778</v>
+        <v>0.6219910819138251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -11052,19 +11052,19 @@
         <v>56873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49236</v>
+        <v>49607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64042</v>
+        <v>64279</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5670899739095764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4909389416489061</v>
+        <v>0.4946317806005923</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6385655976755069</v>
+        <v>0.6409340501520967</v>
       </c>
     </row>
     <row r="20">
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5153</v>
+        <v>4461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05360900559542139</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1962915775385806</v>
+        <v>0.1699077267527991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -11102,19 +11102,19 @@
         <v>2822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1187</v>
+        <v>1274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6023</v>
+        <v>5999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03811209237264508</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01602615048455125</v>
+        <v>0.01720297516176891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08135462634901752</v>
+        <v>0.08102110805965849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -11123,19 +11123,19 @@
         <v>4229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1919</v>
+        <v>1886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8528</v>
+        <v>8266</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04216871145011483</v>
+        <v>0.04216871145011484</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01913744473373052</v>
+        <v>0.01880219487927369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08503592821383395</v>
+        <v>0.0824184374722625</v>
       </c>
     </row>
     <row r="21">
@@ -11240,19 +11240,19 @@
         <v>2118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5842</v>
+        <v>5906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04441040956670727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01256533051614782</v>
+        <v>0.01267739983759964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1224988550625005</v>
+        <v>0.1238362070315396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -11261,19 +11261,19 @@
         <v>2118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6402</v>
+        <v>5848</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02990885913982675</v>
+        <v>0.02990885913982674</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008560988616779369</v>
+        <v>0.008478232136732353</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09041395539570732</v>
+        <v>0.08258441339331377</v>
       </c>
     </row>
     <row r="23">
@@ -11293,16 +11293,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4540</v>
+        <v>4596</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04019274747516206</v>
+        <v>0.04019274747516205</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1963246184629776</v>
+        <v>0.1987690062861637</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -11311,19 +11311,19 @@
         <v>4157</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1735</v>
+        <v>1805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7746</v>
+        <v>7758</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08716895034448983</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03638428001438014</v>
+        <v>0.03783881972785428</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1624219517188069</v>
+        <v>0.1626776197884614</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -11332,19 +11332,19 @@
         <v>5086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2173</v>
+        <v>2368</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9366</v>
+        <v>9352</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0718295787552754</v>
+        <v>0.07182957875527538</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03068204008067772</v>
+        <v>0.03344419849480948</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1322692351427682</v>
+        <v>0.1320617013374213</v>
       </c>
     </row>
     <row r="24">
@@ -11364,16 +11364,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6196</v>
+        <v>6810</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08707492047897283</v>
+        <v>0.08707492047897282</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2679584910512378</v>
+        <v>0.2944915427926504</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -11382,19 +11382,19 @@
         <v>8444</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4927</v>
+        <v>4813</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13485</v>
+        <v>13598</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1770614282762795</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1033227515972208</v>
+        <v>0.1009304842265274</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2827715474012823</v>
+        <v>0.2851258073468868</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -11403,19 +11403,19 @@
         <v>10457</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6156</v>
+        <v>5925</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16610</v>
+        <v>16038</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1476776893445002</v>
+        <v>0.1476776893445001</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08692875439307757</v>
+        <v>0.08367379087374509</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2345651063022942</v>
+        <v>0.2264830288415309</v>
       </c>
     </row>
     <row r="25">
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3809</v>
+        <v>2965</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0298614037217974</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.164711354140709</v>
+        <v>0.1282155975317239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -11469,16 +11469,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3813</v>
+        <v>2999</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009750791675060648</v>
+        <v>0.009750791675060645</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05384145627969449</v>
+        <v>0.04234764443387627</v>
       </c>
     </row>
     <row r="26">
@@ -11498,16 +11498,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4965</v>
+        <v>5279</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04011298360076343</v>
+        <v>0.04011298360076342</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2147044811933744</v>
+        <v>0.2282900262801575</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -11516,19 +11516,19 @@
         <v>2993</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6320</v>
+        <v>6234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06275534836241527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02301250368625251</v>
+        <v>0.02262980631322753</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1325235486394319</v>
+        <v>0.1307180668596559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -11537,19 +11537,19 @@
         <v>3920</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1769</v>
+        <v>1523</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8394</v>
+        <v>8341</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05536182514165517</v>
+        <v>0.05536182514165514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02497461076208797</v>
+        <v>0.02151423844879656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1185348761607081</v>
+        <v>0.1177966211312432</v>
       </c>
     </row>
     <row r="27">
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3745</v>
+        <v>4134</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03927963251771301</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1619689315384261</v>
+        <v>0.1787907444320055</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4927</v>
+        <v>5301</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01282617245061324</v>
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06957602900413723</v>
+        <v>0.07485739551635053</v>
       </c>
     </row>
     <row r="28">
@@ -11629,19 +11629,19 @@
         <v>16761</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12063</v>
+        <v>11640</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20076</v>
+        <v>20027</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7248580916542648</v>
+        <v>0.724858091654265</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5217065791878512</v>
+        <v>0.5034103371679747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8682171660904591</v>
+        <v>0.8661029397404578</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -11650,19 +11650,19 @@
         <v>26092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20507</v>
+        <v>20692</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31462</v>
+        <v>32034</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5471156021856576</v>
+        <v>0.5471156021856575</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4300119857637903</v>
+        <v>0.4338787067799503</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6597138432672764</v>
+        <v>0.6717207469602198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>61</v>
@@ -11671,19 +11671,19 @@
         <v>42852</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>35520</v>
+        <v>36105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49154</v>
+        <v>49460</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6051547353343096</v>
+        <v>0.6051547353343093</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5016096609712456</v>
+        <v>0.5098662023396981</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6941431707671202</v>
+        <v>0.6984693782077359</v>
       </c>
     </row>
     <row r="29">
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4431</v>
+        <v>3894</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03862022055132636</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1916485580195129</v>
+        <v>0.1684091681753136</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -11721,19 +11721,19 @@
         <v>3886</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1815</v>
+        <v>1455</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8402</v>
+        <v>7616</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08148826126445059</v>
+        <v>0.08148826126445061</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03805982106071706</v>
+        <v>0.03050575669813039</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.176176326841727</v>
+        <v>0.1597003487599329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -11742,19 +11742,19 @@
         <v>4779</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1984</v>
+        <v>2067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9047</v>
+        <v>8821</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06749034815875912</v>
+        <v>0.06749034815875909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02801381302154548</v>
+        <v>0.02919176204654111</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.127754602312795</v>
+        <v>0.1245737543957668</v>
       </c>
     </row>
     <row r="30">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3253</v>
+        <v>3454</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01970469824999079</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09822741350201347</v>
+        <v>0.1042978361480255</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -11867,19 +11867,19 @@
         <v>1833</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5006</v>
+        <v>4984</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02085854497008219</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00639783135933901</v>
+        <v>0.006174625057406549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05694846022033954</v>
+        <v>0.05670315215768879</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -11888,19 +11888,19 @@
         <v>2486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5616</v>
+        <v>5764</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02054280960077954</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005193447893184697</v>
+        <v>0.005348316115689894</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04641215436560685</v>
+        <v>0.04762971279752333</v>
       </c>
     </row>
     <row r="32">
@@ -11917,19 +11917,19 @@
         <v>3543</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1375</v>
+        <v>1438</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7245</v>
+        <v>7094</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1069863392041171</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04150849164053289</v>
+        <v>0.04343942164911338</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2187976144761143</v>
+        <v>0.2142201087415823</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -11938,19 +11938,19 @@
         <v>5056</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2572</v>
+        <v>2401</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9226</v>
+        <v>8926</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.05752330971883967</v>
+        <v>0.05752330971883968</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02925962756007869</v>
+        <v>0.02732026957027443</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.104964059315096</v>
+        <v>0.101544159573343</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -11959,19 +11959,19 @@
         <v>8599</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4907</v>
+        <v>5147</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13721</v>
+        <v>13624</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07105823390714522</v>
+        <v>0.0710582339071452</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04054924863101635</v>
+        <v>0.04253272875737642</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1133810419257082</v>
+        <v>0.1125849681698139</v>
       </c>
     </row>
     <row r="33">
@@ -11988,19 +11988,19 @@
         <v>2388</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5854</v>
+        <v>5603</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07210272935789049</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01899046893961657</v>
+        <v>0.0189574447986791</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1767815079134231</v>
+        <v>0.1691896877454787</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -12009,19 +12009,19 @@
         <v>15190</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10543</v>
+        <v>10383</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>22280</v>
+        <v>21609</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.172810806656353</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1199414765668983</v>
+        <v>0.1181185388006151</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2534647576541826</v>
+        <v>0.2458410715207957</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -12030,19 +12030,19 @@
         <v>17578</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12351</v>
+        <v>12060</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>24554</v>
+        <v>24698</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.145253331799492</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1020655164063627</v>
+        <v>0.09965605451746359</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2029034410302376</v>
+        <v>0.2040935808404029</v>
       </c>
     </row>
     <row r="34">
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3357</v>
+        <v>3854</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01176490387644479</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03818711697073395</v>
+        <v>0.04384051591006211</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -12096,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3675</v>
+        <v>3688</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008545588688769541</v>
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03037188954979318</v>
+        <v>0.03047349277470789</v>
       </c>
     </row>
     <row r="35">
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3360</v>
+        <v>4034</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03316546941957747</v>
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.10148054301222</v>
+        <v>0.1218247674817814</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -12143,19 +12143,19 @@
         <v>8279</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4222</v>
+        <v>4567</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13869</v>
+        <v>15331</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09419172822477544</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04803248937194461</v>
+        <v>0.05195157571438688</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1577768355178405</v>
+        <v>0.1744116518417243</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>14</v>
@@ -12164,19 +12164,19 @@
         <v>9378</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5270</v>
+        <v>5066</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16450</v>
+        <v>15625</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07749267450688456</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04355236048700511</v>
+        <v>0.04185919775194268</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1359384722273357</v>
+        <v>0.1291199825873069</v>
       </c>
     </row>
     <row r="36">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2792</v>
+        <v>3576</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01811491425997774</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08431961240738486</v>
+        <v>0.1080018827827817</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -12214,19 +12214,19 @@
         <v>4736</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1883</v>
+        <v>1941</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8921</v>
+        <v>9010</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05388251383805121</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02142562517094982</v>
+        <v>0.02207862538429233</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1014853175619148</v>
+        <v>0.1025016024315446</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -12235,19 +12235,19 @@
         <v>5336</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10700</v>
+        <v>9842</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04409516854754512</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01983980410407491</v>
+        <v>0.01980673917031406</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08841893176346455</v>
+        <v>0.0813319105182657</v>
       </c>
     </row>
     <row r="37">
@@ -12264,19 +12264,19 @@
         <v>22026</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17329</v>
+        <v>17318</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25698</v>
+        <v>25789</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6651512285500563</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5233108721952454</v>
+        <v>0.5229842999456272</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7760413946909704</v>
+        <v>0.7787900079409009</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>81</v>
@@ -12285,19 +12285,19 @@
         <v>47200</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>39733</v>
+        <v>39825</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>54467</v>
+        <v>54464</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.536970281133708</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4520227890305741</v>
+        <v>0.4530722626779549</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6196461148922685</v>
+        <v>0.6196121587486098</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>115</v>
@@ -12306,19 +12306,19 @@
         <v>69225</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>60385</v>
+        <v>59984</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>77875</v>
+        <v>77012</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5720453548548161</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4989935039582263</v>
+        <v>0.4956854094029933</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6435267070055074</v>
+        <v>0.6363980057784148</v>
       </c>
     </row>
     <row r="38">
@@ -12335,19 +12335,19 @@
         <v>2807</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1010</v>
+        <v>1061</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6150</v>
+        <v>5894</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08477462095839022</v>
+        <v>0.08477462095839024</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03051473479185778</v>
+        <v>0.03203674906904203</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1857101658422822</v>
+        <v>0.1780004324473826</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -12356,19 +12356,19 @@
         <v>4571</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1975</v>
+        <v>2235</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8237</v>
+        <v>8145</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05199791158174576</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02246947992858564</v>
+        <v>0.02542243499014962</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09371423885167232</v>
+        <v>0.09266362748167113</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>14</v>
@@ -12377,19 +12377,19 @@
         <v>7378</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4135</v>
+        <v>4120</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11994</v>
+        <v>11785</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06096683809456786</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03416635144396381</v>
+        <v>0.03404353552824733</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09911280677086956</v>
+        <v>0.0973838305955718</v>
       </c>
     </row>
     <row r="39">
@@ -12481,19 +12481,19 @@
         <v>2152</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6427</v>
+        <v>6642</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01981813680316461</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004784317509066763</v>
+        <v>0.004530247125711833</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0591955728457811</v>
+        <v>0.06116940343843677</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>16</v>
@@ -12502,19 +12502,19 @@
         <v>9124</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5417</v>
+        <v>5155</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14840</v>
+        <v>14351</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03312791143900295</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01966575113082849</v>
+        <v>0.01871643101143751</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05387872240458709</v>
+        <v>0.05210551273592388</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>19</v>
@@ -12523,19 +12523,19 @@
         <v>11276</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6683</v>
+        <v>6898</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18142</v>
+        <v>18045</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02936462288150008</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01740353523602527</v>
+        <v>0.01796376385654496</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04724376626650682</v>
+        <v>0.04699050183031023</v>
       </c>
     </row>
     <row r="41">
@@ -12552,19 +12552,19 @@
         <v>8091</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4434</v>
+        <v>4415</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13701</v>
+        <v>12602</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07451671637448225</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04084105281455699</v>
+        <v>0.0406635046926902</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1261896109065473</v>
+        <v>0.1160697279543901</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>35</v>
@@ -12573,19 +12573,19 @@
         <v>18824</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13216</v>
+        <v>13578</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26348</v>
+        <v>25467</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06834324648776498</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04798268960974753</v>
+        <v>0.04929618732683868</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09566076756995003</v>
+        <v>0.09246189949997496</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>49</v>
@@ -12594,19 +12594,19 @@
         <v>26914</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20619</v>
+        <v>20841</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>35707</v>
+        <v>35910</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07008877180434057</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05369449829367998</v>
+        <v>0.05427319675527795</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09298633015972137</v>
+        <v>0.09351402496366941</v>
       </c>
     </row>
     <row r="42">
@@ -12623,19 +12623,19 @@
         <v>14273</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9576</v>
+        <v>8736</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20725</v>
+        <v>20360</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1314528195327872</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08819365716211965</v>
+        <v>0.08045633969201667</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1908823166203924</v>
+        <v>0.187520483037292</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>101</v>
@@ -12644,19 +12644,19 @@
         <v>51457</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42054</v>
+        <v>41479</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>61123</v>
+        <v>60988</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1868234071962621</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1526871045414742</v>
+        <v>0.1505986138146486</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2219209214898915</v>
+        <v>0.2214273069574572</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>124</v>
@@ -12665,19 +12665,19 @@
         <v>65729</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>55678</v>
+        <v>55481</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77644</v>
+        <v>78625</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1711675824601253</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1449922885049515</v>
+        <v>0.1444797985563233</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2021942360459317</v>
+        <v>0.2047507275223078</v>
       </c>
     </row>
     <row r="43">
@@ -12694,19 +12694,19 @@
         <v>2149</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>6319</v>
+        <v>6076</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01979370864094239</v>
+        <v>0.0197937086409424</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005265255418663575</v>
+        <v>0.005089431612525813</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05819701517494513</v>
+        <v>0.05595764930700627</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>8</v>
@@ -12715,19 +12715,19 @@
         <v>3427</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1420</v>
+        <v>1532</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>6972</v>
+        <v>6598</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0124407407630761</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.005156575711279739</v>
+        <v>0.005563649132731679</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02531189970377173</v>
+        <v>0.02395690751361302</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -12736,19 +12736,19 @@
         <v>5576</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>10066</v>
+        <v>10759</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01451976468613725</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.00749759398482008</v>
+        <v>0.007486043254286644</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02621217560955045</v>
+        <v>0.02801847652252581</v>
       </c>
     </row>
     <row r="44">
@@ -12765,19 +12765,19 @@
         <v>3703</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1461</v>
+        <v>1343</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8292</v>
+        <v>8412</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03410659785524209</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01345638934862593</v>
+        <v>0.0123667821802442</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07637147625948057</v>
+        <v>0.07747537857054519</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>34</v>
@@ -12786,19 +12786,19 @@
         <v>19146</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13550</v>
+        <v>13435</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>27108</v>
+        <v>27015</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.06951437233911388</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04919603080033227</v>
+        <v>0.04877755241421024</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09842105191243056</v>
+        <v>0.09808499651459021</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>40</v>
@@ -12807,19 +12807,19 @@
         <v>22849</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>15893</v>
+        <v>16033</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>31438</v>
+        <v>32538</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05950295770531503</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04138750007788641</v>
+        <v>0.0417533576995482</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08186923866789637</v>
+        <v>0.08473317553643522</v>
       </c>
     </row>
     <row r="45">
@@ -12836,19 +12836,19 @@
         <v>5897</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2839</v>
+        <v>2757</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>11470</v>
+        <v>10865</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05430839068084636</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02614831633111587</v>
+        <v>0.02539471150916942</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1056427417691156</v>
+        <v>0.1000713729117364</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>29</v>
@@ -12857,19 +12857,19 @@
         <v>14899</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>10072</v>
+        <v>10073</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>21446</v>
+        <v>21252</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.05409477598297843</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03656717667885923</v>
+        <v>0.03657076733217487</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.07786477585206</v>
+        <v>0.07716100209761437</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>38</v>
@@ -12878,19 +12878,19 @@
         <v>20796</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>14617</v>
+        <v>14837</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>28543</v>
+        <v>29075</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.05415517473278417</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03806575417162714</v>
+        <v>0.03863660854674183</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07432933726277344</v>
+        <v>0.07571574493417242</v>
       </c>
     </row>
     <row r="46">
@@ -12907,19 +12907,19 @@
         <v>66365</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>57263</v>
+        <v>58764</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>73956</v>
+        <v>74340</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6112352268689938</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5273969698250212</v>
+        <v>0.5412261180343901</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6811449272789986</v>
+        <v>0.684677224750747</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>267</v>
@@ -12928,19 +12928,19 @@
         <v>145855</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>132678</v>
+        <v>133519</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>157765</v>
+        <v>157606</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5295565916517095</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.481714781322164</v>
+        <v>0.4847689421678372</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5727956716301946</v>
+        <v>0.5722196501860929</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>370</v>
@@ -12949,19 +12949,19 @@
         <v>212221</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>198662</v>
+        <v>195874</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>228387</v>
+        <v>225906</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5526509175674913</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5173429924890098</v>
+        <v>0.5100818846371444</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5947513317314438</v>
+        <v>0.5882890241564912</v>
       </c>
     </row>
     <row r="47">
@@ -12978,19 +12978,19 @@
         <v>5947</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>25</v>
@@ -12999,19 +12999,19 @@
         <v>12697</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04609895414009209</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>35</v>
@@ -13020,19 +13020,19 @@
         <v>18644</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04855020816230635</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="48">
